--- a/UnitTest.xlsx
+++ b/UnitTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matías\CURSOS y CHARLAS\CODER - PYTHON\Python Folder\Final Project\ProyectoFinal-Coronel\Proyecto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522DCC1A-F756-421A-A11D-BE9FD0536C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E26C56-7D8B-40D2-AE47-98E5FC2F0863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Nombre del Proyecto</t>
   </si>
@@ -93,7 +93,43 @@
     <t>Crear Clase</t>
   </si>
   <si>
-    <t>Eliminar Clase</t>
+    <t>Prueba de navbar</t>
+  </si>
+  <si>
+    <t>Que al tocar cada titulo (Alumnos, Tutores, Clase, AboutUs, Login), se redirija a la página correspondiente.</t>
+  </si>
+  <si>
+    <t>Se dirige a la página correspondiente en cada caso</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Visualizacion botones editar/borrar</t>
+  </si>
+  <si>
+    <t>En las listas de clase el usuario logeado debería ver los botones para editar o borrar clase si y solo sí él fue el creador.</t>
+  </si>
+  <si>
+    <t>El usuario no ve los botones en las clases que no es dueño y sí en las demas. Los botones funcionan correctamente.</t>
+  </si>
+  <si>
+    <t>Ver mas y comentar en Fisica</t>
+  </si>
+  <si>
+    <t>En las clases de física se habilitaron botones de Ver Mas en vez de mostrar toda la info junta, y en ese detalle se permite comentar. Se espera que la vista y comentario se ejecuten correctamente.</t>
+  </si>
+  <si>
+    <t>Se visualiza y comenta correctamente</t>
+  </si>
+  <si>
+    <t>Se espera crear clase con todos los atributos definidos y que se publique correctamente</t>
+  </si>
+  <si>
+    <t>Se publica la clase pero la imagen no carga correctamente. Hay que usar el boton editar la clase o ir al admin para que la imagen quede correctamente cargada. Se hipotetiza un error por falta de  enctype="multipart/form-data" en el html, pero al agregarlo directamente no se efectua el guardado de la clase. Se espera comentario de tutor/profe. Como el boton editar si carga la imagen bien, es una solucion temporal.</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -158,12 +194,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -173,11 +208,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,126 +503,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:G12"/>
+  <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="18.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.77734375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+    <row r="8" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="2:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10">
+    <row r="10" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="8">
         <v>1</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="9">
         <v>45119</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>45119</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="8">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9">
+        <v>45119</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="8">
+        <v>4</v>
+      </c>
+      <c r="C13" s="9">
+        <v>45119</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6">
-        <v>45119</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6">
-        <v>45119</v>
+      <c r="E13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTest.xlsx
+++ b/UnitTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matías\CURSOS y CHARLAS\CODER - PYTHON\Python Folder\Final Project\ProyectoFinal-Coronel\Proyecto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E26C56-7D8B-40D2-AE47-98E5FC2F0863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5ADE88-F3B5-4975-B945-629AA6467A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Nombre del Proyecto</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Edicion Perfil</t>
+  </si>
+  <si>
+    <t>Editar algun atributo del perfil de usuario (nombre, avatar, contraseña).</t>
+  </si>
+  <si>
+    <t>Se probaron las alternativas y en todas se logro modificar correctamente</t>
   </si>
 </sst>
 </file>
@@ -503,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G13"/>
+  <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,6 +697,26 @@
         <v>34</v>
       </c>
     </row>
+    <row r="14" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="8">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9">
+        <v>45119</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
